--- a/data/trans_orig/Q20C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Estudios-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>5.295497205033431</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>5.600343998662227</v>
+        <v>5.600343998662228</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>6.985093840866266</v>
@@ -693,7 +693,7 @@
         <v>6.939930782933823</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>6.875460193248253</v>
+        <v>6.875460193248254</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.723049152768555</v>
+        <v>5.72597778591361</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.315527701523763</v>
+        <v>3.154123235168865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.171640915576462</v>
+        <v>3.196558072296381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.844410319867991</v>
+        <v>5.122301440485489</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.162402303456569</v>
+        <v>4.130662465518904</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.514337625677267</v>
+        <v>3.489966982415543</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.430001466887405</v>
+        <v>3.448998635648028</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.045811559593652</v>
+        <v>3.97899287249268</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.241479075222099</v>
+        <v>5.096955414639385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.806856748371567</v>
+        <v>3.752493243035056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4.102824936080809</v>
+        <v>4.216851635074747</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>4.949103224813361</v>
+        <v>5.105819196059968</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.23079274297915</v>
+        <v>17.70462216688041</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.44989277665608</v>
+        <v>8.27205037921553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35.49579154262775</v>
+        <v>35.3484409637691</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.81881431831436</v>
+        <v>13.77684254475474</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.961544783781669</v>
+        <v>7.79562654128214</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.571213811612806</v>
+        <v>6.604623626814129</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.220897759753905</v>
+        <v>8.496128072690816</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.24723402275691</v>
+        <v>9.718042986498229</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.88210573068721</v>
+        <v>10.37090525506468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.511446388263598</v>
+        <v>6.482032805144876</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.34574818764349</v>
+        <v>17.22787478317392</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>10.08859951937961</v>
+        <v>10.43131510524709</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>7.844934417387303</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.793764176271619</v>
+        <v>7.793764176271617</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>2.901321808255147</v>
@@ -817,7 +817,7 @@
         <v>7.125936601928253</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>6.369271383811432</v>
+        <v>6.369271383811434</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.770296146532757</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.346532866946047</v>
+        <v>1.48725905726165</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.962308115732281</v>
+        <v>4.021544695103421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.581605133383064</v>
+        <v>5.530932559123075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.77494742263309</v>
+        <v>4.93398339395811</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.824413547315951</v>
+        <v>1.809039372942463</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.053473130815433</v>
+        <v>4.114699039352647</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>5.366584081799926</v>
+        <v>5.221656753519611</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>4.149962876625458</v>
+        <v>4.13139669992857</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.825921719315748</v>
+        <v>2.01243971023445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4.610562456279982</v>
+        <v>4.574559760397745</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5.980443079591224</v>
+        <v>5.989043302040758</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>5.118602714706839</v>
+        <v>5.020130307786487</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.43433379628857</v>
+        <v>3.507691668304937</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.634223530728041</v>
+        <v>10.00023575852054</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.33024058465011</v>
+        <v>11.4358903139046</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.3685786231653</v>
+        <v>12.74650971854965</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.988198127064746</v>
+        <v>4.986682375421875</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.608283396337763</v>
+        <v>8.711404945881631</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.754835825355089</v>
+        <v>9.600378548365354</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11.85726474301358</v>
+        <v>10.93343275368015</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>4.14892870902817</v>
+        <v>4.388928238956487</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8.171238659740474</v>
+        <v>7.906781068730923</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9.531509175118842</v>
+        <v>9.848458354034602</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.37567781914774</v>
+        <v>10.27979663255369</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>4.596781790786083</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>6.107497707294775</v>
+        <v>6.107497707294773</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>5.17147057166971</v>
@@ -965,7 +965,7 @@
         <v>3.612177902355946</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>5.885777923277006</v>
+        <v>5.885777923277007</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.354119182477918</v>
+        <v>3.521895132106398</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.015024576231741</v>
+        <v>1.687595191922115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.723181422259841</v>
+        <v>3.781563697171697</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.285486058127303</v>
+        <v>4.291358986338373</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.122439370950794</v>
+        <v>3.325644606982404</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.66815712186342</v>
+        <v>2.731607750752448</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.569017821110689</v>
+        <v>3.641956385082218</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.440812766048564</v>
+        <v>2.435414719741221</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>4.066885556292017</v>
+        <v>4.022461310900759</v>
       </c>
     </row>
     <row r="12">
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.801823597081</v>
+        <v>13.63473392610602</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>3</v>
@@ -1029,31 +1029,31 @@
         <v>5.169866906672264</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.10119828425386</v>
+        <v>10.35899869896695</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>3.409730932415333</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.19282189428817</v>
+        <v>12.1719003373223</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.12059502232664</v>
+        <v>10.18254482091764</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.65608306625644</v>
+        <v>10.09611410176525</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10.42580108357656</v>
+        <v>10.74007945208541</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5.260144021752046</v>
+        <v>5.13467433449348</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>8.77181432887161</v>
+        <v>8.850033213043806</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.89299966298296</v>
+        <v>5.139572512069681</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.020132434703129</v>
+        <v>4.076560829869151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.533471897069924</v>
+        <v>5.568860939153818</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.508443469150698</v>
+        <v>5.540522790050814</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.4725717315461</v>
+        <v>3.45497851759894</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.472040841686251</v>
+        <v>4.470541497295573</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>4.958348351847587</v>
+        <v>4.860206877520444</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>4.588783278786479</v>
+        <v>4.638780884286316</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.400961894915395</v>
+        <v>4.381933293559089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4.581389233611313</v>
+        <v>4.527867097390046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5.667537661511813</v>
+        <v>5.771761373100526</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>5.562609608751579</v>
+        <v>5.574556924777689</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.43175847183978</v>
+        <v>12.65488297389323</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.69463422778308</v>
+        <v>7.634962463655484</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.21244606393139</v>
+        <v>13.34155123036722</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.514824287719</v>
+        <v>10.58868311399046</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.033241304464847</v>
+        <v>6.151652195921756</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.016745122395586</v>
+        <v>6.997508564011495</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>8.142741666847714</v>
+        <v>7.997831207279748</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>8.900617293975698</v>
+        <v>9.152050630011278</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.732130417852725</v>
+        <v>7.618825962286962</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.686635752715787</v>
+        <v>6.613197627211202</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9.92363622916168</v>
+        <v>9.915048830207882</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>8.763424410219885</v>
+        <v>9.025893828110478</v>
       </c>
     </row>
     <row r="16">
